--- a/data/timing and duration.xlsx
+++ b/data/timing and duration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\Projects\2024 Hypoxia Season Review\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E3D5E4-0829-4B6B-8B54-DCD61E390A0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888AA891-E1BE-4FDA-ABBC-86775ADD3FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="9">
   <si>
     <t>Before</t>
   </si>
@@ -1776,9 +1776,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1816,9 +1816,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1851,26 +1851,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1903,26 +1886,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2096,18 +2062,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9CCAC1-0B8F-466B-8DF1-AB16404ABD8B}">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65:B67"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2118,7 +2084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1991</v>
       </c>
@@ -2129,7 +2095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1991</v>
       </c>
@@ -2140,7 +2106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1991</v>
       </c>
@@ -2151,7 +2117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1992</v>
       </c>
@@ -2162,7 +2128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1992</v>
       </c>
@@ -2173,7 +2139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1992</v>
       </c>
@@ -2184,7 +2150,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1993</v>
       </c>
@@ -2195,7 +2161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1993</v>
       </c>
@@ -2206,7 +2172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1993</v>
       </c>
@@ -2217,7 +2183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>1994</v>
       </c>
@@ -2228,7 +2194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1994</v>
       </c>
@@ -2239,7 +2205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1994</v>
       </c>
@@ -2250,7 +2216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>1995</v>
       </c>
@@ -2261,7 +2227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1995</v>
       </c>
@@ -2272,7 +2238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1995</v>
       </c>
@@ -2283,7 +2249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>1996</v>
       </c>
@@ -2294,7 +2260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>1996</v>
       </c>
@@ -2305,7 +2271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>1996</v>
       </c>
@@ -2316,7 +2282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>1997</v>
       </c>
@@ -2327,7 +2293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>1997</v>
       </c>
@@ -2338,7 +2304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>1997</v>
       </c>
@@ -2349,7 +2315,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>1998</v>
       </c>
@@ -2360,7 +2326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>1998</v>
       </c>
@@ -2371,7 +2337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>1998</v>
       </c>
@@ -2382,7 +2348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>1999</v>
       </c>
@@ -2393,7 +2359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>1999</v>
       </c>
@@ -2404,7 +2370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>1999</v>
       </c>
@@ -2415,7 +2381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>2000</v>
       </c>
@@ -2426,7 +2392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>2000</v>
       </c>
@@ -2437,7 +2403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>2000</v>
       </c>
@@ -2448,7 +2414,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>2001</v>
       </c>
@@ -2459,7 +2425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>2001</v>
       </c>
@@ -2470,7 +2436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>2001</v>
       </c>
@@ -2481,7 +2447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>2002</v>
       </c>
@@ -2492,7 +2458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>2002</v>
       </c>
@@ -2503,7 +2469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>2002</v>
       </c>
@@ -2514,7 +2480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>2003</v>
       </c>
@@ -2525,7 +2491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>2003</v>
       </c>
@@ -2536,7 +2502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>2003</v>
       </c>
@@ -2547,7 +2513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>2004</v>
       </c>
@@ -2558,7 +2524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>2004</v>
       </c>
@@ -2569,7 +2535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>2004</v>
       </c>
@@ -2580,7 +2546,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>2005</v>
       </c>
@@ -2591,7 +2557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>2005</v>
       </c>
@@ -2602,7 +2568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>2005</v>
       </c>
@@ -2613,7 +2579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>2006</v>
       </c>
@@ -2624,7 +2590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>2006</v>
       </c>
@@ -2635,7 +2601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>2006</v>
       </c>
@@ -2646,7 +2612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>2007</v>
       </c>
@@ -2657,7 +2623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>2007</v>
       </c>
@@ -2668,7 +2634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>2007</v>
       </c>
@@ -2679,7 +2645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>2008</v>
       </c>
@@ -2690,7 +2656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>2008</v>
       </c>
@@ -2701,7 +2667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>2008</v>
       </c>
@@ -2712,7 +2678,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>2009</v>
       </c>
@@ -2723,7 +2689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>2009</v>
       </c>
@@ -2734,7 +2700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>2009</v>
       </c>
@@ -2745,7 +2711,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>2010</v>
       </c>
@@ -2756,7 +2722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>2010</v>
       </c>
@@ -2767,7 +2733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>2010</v>
       </c>
@@ -2778,7 +2744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>2011</v>
       </c>
@@ -2789,7 +2755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>2011</v>
       </c>
@@ -2800,7 +2766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>2011</v>
       </c>
@@ -2811,7 +2777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>2012</v>
       </c>
@@ -2822,7 +2788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>2012</v>
       </c>
@@ -2833,7 +2799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>2012</v>
       </c>
@@ -2844,7 +2810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>2013</v>
       </c>
@@ -2855,7 +2821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>2013</v>
       </c>
@@ -2866,7 +2832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>2013</v>
       </c>
@@ -2877,7 +2843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>2014</v>
       </c>
@@ -2888,7 +2854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>2014</v>
       </c>
@@ -2899,7 +2865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>2014</v>
       </c>
@@ -2910,7 +2876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>2015</v>
       </c>
@@ -2921,7 +2887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>2015</v>
       </c>
@@ -2932,7 +2898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>2015</v>
       </c>
@@ -2943,7 +2909,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>2016</v>
       </c>
@@ -2954,7 +2920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>2016</v>
       </c>
@@ -2965,7 +2931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>2016</v>
       </c>
@@ -2976,7 +2942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>2017</v>
       </c>
@@ -2987,7 +2953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>2017</v>
       </c>
@@ -2998,7 +2964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>2017</v>
       </c>
@@ -3009,7 +2975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>2018</v>
       </c>
@@ -3020,7 +2986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>2018</v>
       </c>
@@ -3031,7 +2997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>2018</v>
       </c>
@@ -3042,7 +3008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>2019</v>
       </c>
@@ -3053,7 +3019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>2019</v>
       </c>
@@ -3064,7 +3030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>2019</v>
       </c>
@@ -3075,7 +3041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>2020</v>
       </c>
@@ -3086,7 +3052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>2020</v>
       </c>
@@ -3097,7 +3063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>2020</v>
       </c>
@@ -3108,7 +3074,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>2021</v>
       </c>
@@ -3119,7 +3085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>2021</v>
       </c>
@@ -3130,7 +3096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>2021</v>
       </c>
@@ -3141,7 +3107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>2022</v>
       </c>
@@ -3152,7 +3118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>2022</v>
       </c>
@@ -3163,7 +3129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>2022</v>
       </c>
@@ -3174,7 +3140,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>2023</v>
       </c>
@@ -3185,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>2023</v>
       </c>
@@ -3196,7 +3162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>2023</v>
       </c>
@@ -3207,8 +3173,41 @@
         <v>6</v>
       </c>
     </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2024</v>
+      </c>
+      <c r="B101">
+        <v>197</v>
+      </c>
+      <c r="C101" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2024</v>
+      </c>
+      <c r="B102">
+        <v>38</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>2024</v>
+      </c>
+      <c r="B103">
+        <v>130</v>
+      </c>
+      <c r="C103" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:C100">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C100">
     <sortCondition ref="A2:A100"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3224,9 +3223,9 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>1991</v>
       </c>
@@ -3303,7 +3302,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3383,7 +3382,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3463,7 +3462,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3543,27 +3542,27 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Z5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Z6">
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Z7">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Z8">
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>2014</v>
       </c>
@@ -3571,7 +3570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -3582,7 +3581,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -3593,7 +3592,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
